--- a/python/openpyxl/copy-range/source-en.xlsx
+++ b/python/openpyxl/copy-range/source-en.xlsx
@@ -91,7 +91,7 @@
     <t xml:space="preserve">VAT</t>
   </si>
   <si>
-    <t xml:space="preserve">Tanggal Rekam</t>
+    <t xml:space="preserve">Record Date</t>
   </si>
   <si>
     <t xml:space="preserve">Mon 16 May 2022, 01:44:48 WIB</t>
@@ -100,7 +100,7 @@
     <t xml:space="preserve">VAT Lux</t>
   </si>
   <si>
-    <t xml:space="preserve">Record Date</t>
+    <t xml:space="preserve">Record User</t>
   </si>
   <si>
     <t xml:space="preserve">Tax Inv Status</t>
@@ -538,8 +538,8 @@
   </sheetPr>
   <dimension ref="A1:XFD1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I13" activeCellId="0" sqref="I13"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C11" activeCellId="0" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.42578125" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -551,7 +551,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="7.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="16.84"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="4.09"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="10.21"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="10.2"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="13.8"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="4.09"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="2" width="4.09"/>
